--- a/medicine/Maladies infectieuses/Devi_Sridhar/Devi_Sridhar.xlsx
+++ b/medicine/Maladies infectieuses/Devi_Sridhar/Devi_Sridhar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Devi Sridhar est une chercheuse américaine en santé publique née en 1984.
-Elle est professeure à l’université d'Edimbourg[1].
-Depuis 2020, elle conseille le gouvernement de l'Écosse sur la gestion de la pandémie de Covid-19[1].
-Elle est membre du comité de pilotage du groupe DELVE (Data Evaluation and Learning for Viral Epidemics) de la Royal Society[2].
+Elle est professeure à l’université d'Edimbourg.
+Depuis 2020, elle conseille le gouvernement de l'Écosse sur la gestion de la pandémie de Covid-19.
+Elle est membre du comité de pilotage du groupe DELVE (Data Evaluation and Learning for Viral Epidemics) de la Royal Society.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sridhar, D. (2008), The Battle Against Hunger: Choice, Circumstance and the World Bank, Oxford: Oxford University Press,  (ISBN 978-0199549962)
 Sridhar, D. (2014), Healthy Ideas: Improving Global Health and Development in the 21st Century Edinburgh: Edinburgh University Press
